--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.002483333333334</v>
+        <v>5.115481333333334</v>
       </c>
       <c r="H2">
-        <v>9.00745</v>
+        <v>15.346444</v>
       </c>
       <c r="I2">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127355</v>
       </c>
       <c r="J2">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127354</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3881116666666667</v>
+        <v>0.01985533333333333</v>
       </c>
       <c r="N2">
-        <v>1.164335</v>
+        <v>0.059566</v>
       </c>
       <c r="O2">
-        <v>0.3557564478344974</v>
+        <v>0.02825030780058695</v>
       </c>
       <c r="P2">
-        <v>0.3557564478344974</v>
+        <v>0.02825030780058696</v>
       </c>
       <c r="Q2">
-        <v>1.165298810638889</v>
+        <v>0.1015695870337778</v>
       </c>
       <c r="R2">
-        <v>10.48768929575</v>
+        <v>0.9141262833040001</v>
       </c>
       <c r="S2">
-        <v>0.04348220514709042</v>
+        <v>0.005416912205253667</v>
       </c>
       <c r="T2">
-        <v>0.04348220514709041</v>
+        <v>0.005416912205253668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.002483333333334</v>
+        <v>5.115481333333334</v>
       </c>
       <c r="H3">
-        <v>9.00745</v>
+        <v>15.346444</v>
       </c>
       <c r="I3">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127355</v>
       </c>
       <c r="J3">
-        <v>0.1222246438870418</v>
+        <v>0.1917470154127354</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01985533333333333</v>
+        <v>0.6829806666666668</v>
       </c>
       <c r="N3">
-        <v>0.05956599999999999</v>
+        <v>2.048942</v>
       </c>
       <c r="O3">
-        <v>0.01820007864721895</v>
+        <v>0.9717496921994131</v>
       </c>
       <c r="P3">
-        <v>0.01820007864721895</v>
+        <v>0.9717496921994131</v>
       </c>
       <c r="Q3">
-        <v>0.05961530741111112</v>
+        <v>3.49377485136089</v>
       </c>
       <c r="R3">
-        <v>0.5365377667</v>
+        <v>31.44397366224801</v>
       </c>
       <c r="S3">
-        <v>0.002224498131372489</v>
+        <v>0.1863301032074818</v>
       </c>
       <c r="T3">
-        <v>0.002224498131372489</v>
+        <v>0.1863301032074818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.002483333333334</v>
+        <v>11.971037</v>
       </c>
       <c r="H4">
-        <v>9.00745</v>
+        <v>35.913111</v>
       </c>
       <c r="I4">
-        <v>0.1222246438870418</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="J4">
-        <v>0.1222246438870418</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.6829806666666666</v>
+        <v>0.01985533333333333</v>
       </c>
       <c r="N4">
-        <v>2.048942</v>
+        <v>0.059566</v>
       </c>
       <c r="O4">
-        <v>0.6260434735182836</v>
+        <v>0.02825030780058695</v>
       </c>
       <c r="P4">
-        <v>0.6260434735182836</v>
+        <v>0.02825030780058696</v>
       </c>
       <c r="Q4">
-        <v>2.050638068655556</v>
+        <v>0.2376889299806667</v>
       </c>
       <c r="R4">
-        <v>18.4557426179</v>
+        <v>2.139200369826</v>
       </c>
       <c r="S4">
-        <v>0.0765179406085789</v>
+        <v>0.01267643300979235</v>
       </c>
       <c r="T4">
-        <v>0.07651794060857889</v>
+        <v>0.01267643300979235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>35.913111</v>
       </c>
       <c r="I5">
-        <v>0.4873151894099666</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="J5">
-        <v>0.4873151894099665</v>
+        <v>0.4487184033275903</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3881116666666667</v>
+        <v>0.6829806666666668</v>
       </c>
       <c r="N5">
-        <v>1.164335</v>
+        <v>2.048942</v>
       </c>
       <c r="O5">
-        <v>0.3557564478344974</v>
+        <v>0.9717496921994131</v>
       </c>
       <c r="P5">
-        <v>0.3557564478344974</v>
+        <v>0.9717496921994131</v>
       </c>
       <c r="Q5">
-        <v>4.646099121798334</v>
+        <v>8.175986830951336</v>
       </c>
       <c r="R5">
-        <v>41.81489209618501</v>
+        <v>73.58388147856201</v>
       </c>
       <c r="S5">
-        <v>0.173365520760285</v>
+        <v>0.436041970317798</v>
       </c>
       <c r="T5">
-        <v>0.173365520760285</v>
+        <v>0.436041970317798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.971037</v>
+        <v>9.591765666666667</v>
       </c>
       <c r="H6">
-        <v>35.913111</v>
+        <v>28.775297</v>
       </c>
       <c r="I6">
-        <v>0.4873151894099666</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="J6">
-        <v>0.4873151894099665</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,30 +803,30 @@
         <v>0.01985533333333333</v>
       </c>
       <c r="N6">
-        <v>0.05956599999999999</v>
+        <v>0.059566</v>
       </c>
       <c r="O6">
-        <v>0.01820007864721895</v>
+        <v>0.02825030780058695</v>
       </c>
       <c r="P6">
-        <v>0.01820007864721895</v>
+        <v>0.02825030780058696</v>
       </c>
       <c r="Q6">
-        <v>0.2376889299806667</v>
+        <v>0.1904477045668889</v>
       </c>
       <c r="R6">
-        <v>2.139200369826</v>
+        <v>1.714029341102</v>
       </c>
       <c r="S6">
-        <v>0.008869174773245789</v>
+        <v>0.01015696258554094</v>
       </c>
       <c r="T6">
-        <v>0.008869174773245789</v>
+        <v>0.01015696258554094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.971037</v>
+        <v>9.591765666666667</v>
       </c>
       <c r="H7">
-        <v>35.913111</v>
+        <v>28.775297</v>
       </c>
       <c r="I7">
-        <v>0.4873151894099666</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="J7">
-        <v>0.4873151894099665</v>
+        <v>0.3595345812596742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6829806666666666</v>
+        <v>0.6829806666666668</v>
       </c>
       <c r="N7">
         <v>2.048942</v>
       </c>
       <c r="O7">
-        <v>0.6260434735182836</v>
+        <v>0.9717496921994131</v>
       </c>
       <c r="P7">
-        <v>0.6260434735182836</v>
+        <v>0.9717496921994131</v>
       </c>
       <c r="Q7">
-        <v>8.175986830951333</v>
+        <v>6.550990509530446</v>
       </c>
       <c r="R7">
-        <v>73.58388147856199</v>
+        <v>58.95891458577401</v>
       </c>
       <c r="S7">
-        <v>0.3050804938764358</v>
+        <v>0.3493776186741333</v>
       </c>
       <c r="T7">
-        <v>0.3050804938764358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>9.591765666666667</v>
-      </c>
-      <c r="H8">
-        <v>28.775297</v>
-      </c>
-      <c r="I8">
-        <v>0.3904601667029917</v>
-      </c>
-      <c r="J8">
-        <v>0.3904601667029917</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.3881116666666667</v>
-      </c>
-      <c r="N8">
-        <v>1.164335</v>
-      </c>
-      <c r="O8">
-        <v>0.3557564478344974</v>
-      </c>
-      <c r="P8">
-        <v>0.3557564478344974</v>
-      </c>
-      <c r="Q8">
-        <v>3.722676159166112</v>
-      </c>
-      <c r="R8">
-        <v>33.504085432495</v>
-      </c>
-      <c r="S8">
-        <v>0.138908721927122</v>
-      </c>
-      <c r="T8">
-        <v>0.138908721927122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>9.591765666666667</v>
-      </c>
-      <c r="H9">
-        <v>28.775297</v>
-      </c>
-      <c r="I9">
-        <v>0.3904601667029917</v>
-      </c>
-      <c r="J9">
-        <v>0.3904601667029917</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01985533333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.05956599999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.01820007864721895</v>
-      </c>
-      <c r="P9">
-        <v>0.01820007864721895</v>
-      </c>
-      <c r="Q9">
-        <v>0.1904477045668889</v>
-      </c>
-      <c r="R9">
-        <v>1.714029341102</v>
-      </c>
-      <c r="S9">
-        <v>0.007106405742600669</v>
-      </c>
-      <c r="T9">
-        <v>0.007106405742600669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>9.591765666666667</v>
-      </c>
-      <c r="H10">
-        <v>28.775297</v>
-      </c>
-      <c r="I10">
-        <v>0.3904601667029917</v>
-      </c>
-      <c r="J10">
-        <v>0.3904601667029917</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.6829806666666666</v>
-      </c>
-      <c r="N10">
-        <v>2.048942</v>
-      </c>
-      <c r="O10">
-        <v>0.6260434735182836</v>
-      </c>
-      <c r="P10">
-        <v>0.6260434735182836</v>
-      </c>
-      <c r="Q10">
-        <v>6.550990509530444</v>
-      </c>
-      <c r="R10">
-        <v>58.958914585774</v>
-      </c>
-      <c r="S10">
-        <v>0.244445039033269</v>
-      </c>
-      <c r="T10">
-        <v>0.244445039033269</v>
+        <v>0.3493776186741333</v>
       </c>
     </row>
   </sheetData>
